--- a/biology/Médecine/Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive/Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive.xlsx
+++ b/biology/Médecine/Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive/Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Risques_de_l%27association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+          <t>Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si le tabagisme et la pilule contraceptive ont des effets néfastes pour la santé, leur association l'est bien plus que la simple addition de leurs effets pris séparément[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si le tabagisme et la pilule contraceptive ont des effets néfastes pour la santé, leur association l'est bien plus que la simple addition de leurs effets pris séparément.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Risques_de_l%27association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+          <t>Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,13 @@
           <t>Risques cardio-vasculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les risques énumérés ci-après ne sont pas exhaustifs.
 Les risques cardiovasculaires lors de l'association pilule et tabac sont connus et très importants.
-L'association tabac-pilule multiplie le risque d'accident cardiovasculaire par vingt[2].
-Infarctus du myocarde
-Le risque d’infarctus du myocarde est 87 fois plus élevé chez les femmes fumeuses qui prennent la pilule contre 11 fois plus pour le tabagisme seul[3]. L’âge est un élément augmentant également la mortalité, ainsi, le risque de développer un infarctus du myocarde pour une fumeuse qui a recours à la pilule contraceptive est de 7 cas pour 100 000 chez les 30-39 ans contre 67/100 000 pour la tranche des 40-44 ans[4].
-Accident vasculaire cérébral
-Le risque d'accident vasculaire cérébral est 5,8 fois plus élevé chez les femmes qui fument et utilisent la pilule que chez les femmes ne consommant ni l'un ni l'autre[3].
-Thrombose
-Les femmes fumeuses qui prennent la pilule ont plus de risque de développer une thrombose que les femmes ne prenant ni l'un ni l'autre, et plus encore après 40 ans[3], un risque de thrombose 8,8 fois plus élevé que les femmes non fumeuses qui ne prennent pas la pilule[5].
-Phlébite
-Le risque de phlébite pour les utilisatrices de la pilule qui fument est 5,5 fois plus élevé que pour les femmes ne consommant ni à l’un ni à l’autre[4].
+L'association tabac-pilule multiplie le risque d'accident cardiovasculaire par vingt.
 </t>
         </is>
       </c>
@@ -534,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Risques_de_l%27association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+          <t>Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +555,162 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Risques cardio-vasculaires</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Infarctus du myocarde</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le risque d’infarctus du myocarde est 87 fois plus élevé chez les femmes fumeuses qui prennent la pilule contre 11 fois plus pour le tabagisme seul. L’âge est un élément augmentant également la mortalité, ainsi, le risque de développer un infarctus du myocarde pour une fumeuse qui a recours à la pilule contraceptive est de 7 cas pour 100 000 chez les 30-39 ans contre 67/100 000 pour la tranche des 40-44 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Risques_de_l%27association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Risques cardio-vasculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Accident vasculaire cérébral</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le risque d'accident vasculaire cérébral est 5,8 fois plus élevé chez les femmes qui fument et utilisent la pilule que chez les femmes ne consommant ni l'un ni l'autre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Risques_de_l%27association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Risques cardio-vasculaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Thrombose</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femmes fumeuses qui prennent la pilule ont plus de risque de développer une thrombose que les femmes ne prenant ni l'un ni l'autre, et plus encore après 40 ans, un risque de thrombose 8,8 fois plus élevé que les femmes non fumeuses qui ne prennent pas la pilule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Risques_de_l%27association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Risques cardio-vasculaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phlébite</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le risque de phlébite pour les utilisatrices de la pilule qui fument est 5,5 fois plus élevé que pour les femmes ne consommant ni à l’un ni à l’autre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Risques_de_l'association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Risques_de_l%27association_du_tabagisme_et_de_la_pilule_contraceptive</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Cancer du col de l'utérus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le papillomavirus est responsable de la quasi-totalité des cancers du col de l'utérus, et les risques de le contracter sont accrus chez les fumeuses utilisant la pilule[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le papillomavirus est responsable de la quasi-totalité des cancers du col de l'utérus, et les risques de le contracter sont accrus chez les fumeuses utilisant la pilule.
 </t>
         </is>
       </c>
